--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -531,22 +531,22 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'value': 'pls choose', 'gray': True}</t>
+          <t>pls choose</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'value': '08 : Minutes AM', 'warning': True}</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'value': '06 : Minutes PM', 'warning': True}</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -590,22 +590,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'value': 'pls choose', 'gray': True}</t>
+          <t>pls choose</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'value': '08 : Minutes AM', 'warning': True}</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{'value': '06 : Minutes PM', 'warning': True}</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -649,22 +649,22 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'value': 'pls choose', 'gray': True}</t>
+          <t>pls choose</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -754,10 +754,8 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{'value': 1.67, 'error': True, 'suggest': 2.33}</t>
-        </is>
+      <c r="N5" t="n">
+        <v>1.67</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -814,22 +812,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -887,22 +885,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -946,22 +944,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1005,22 +1003,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1071,24 +1069,20 @@
           <t>weekday</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>{'value': '', 'gray': True}</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1134,24 +1128,20 @@
           <t>weekday</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>{'value': '', 'gray': True}</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1199,22 +1189,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1262,22 +1252,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1325,22 +1315,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1388,22 +1378,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1471,7 +1461,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'value': '2:', 'error': True, 'suggest': 2.0}</t>
+          <t>2:</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1524,22 +1514,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1648,22 +1638,22 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1711,22 +1701,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'value': '2025-01-01', 'gray': True}</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{'value': 'Hour : Minutes AM', 'gray': True}</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'value': ':', 'gray': True}</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,16 +556,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.83</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -615,16 +615,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -754,8 +754,10 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1.67</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -1461,7 +1463,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2:</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -561,11 +561,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.83</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>OT date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Proof for pre-approval</t>
+          <t>Proof about leaders arrange (2) Capture screen call/messages</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Chek in/out screen capture</t>
+          <t>Capture Screen (3) Check in and check out time</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OT location</t>
+          <t>Work location</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -513,37 +513,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>TRAN QUOC VIET10073657</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Time In Lieu 2025_ Tran Tri_10349366_2025-06-26、27</t>
+          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -551,7 +539,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,48 +549,38 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>8.5</v>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>TRAN QUOC VIET10073657</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Time In Lieu 2025_ Tran Tri_10349366_2025-06-26、27</t>
+          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -610,7 +588,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -620,48 +598,38 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>8.5</v>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pham Phuong Thuy00329791</t>
+          <t>TRAN QUOC VIET10073657</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Time off in lieu_ Pham PhuongThuy_00329791_2025-07-14、</t>
+          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -669,7 +637,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,66 +650,43 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>8</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nguyen Dang Binh10342818</t>
+          <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
+          <t>Mar (20.2-19.3) 2025_Time  In Lieu  2025_ LE THAI HOANG LONG_10068423_2025-03-13、</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Approved +Done OT application to do CR202506200008 on 26Jun2025.pdf</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Finished CR at 5h20 2025-06-26 .png 
-In lieu 
-Inlieu time 26Jun2025.jpg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CR at night time</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>02:35</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>05:20</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2.75</v>
-      </c>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>pls choose</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -751,85 +696,55 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10:20</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nguyen Dang Binh10342818</t>
+          <t>Nguyen Trong Thang10316673</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-06-29</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Approved OT application to do CR202506230012_29Jun2025.pdf</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Finished CR at 5h04 2025-06-29 .png</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CR at night time</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>02:15</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>05:05</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2.83</v>
-      </c>
+          <t>Mar (20.2-19.3) 2025_Time off in lieu 2025_ Nguyen Trongthang_10316673_2025-03-18、</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>weekend night</t>
+          <t>pls choose</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -837,72 +752,62 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nguyen Dang Binh10342818</t>
+          <t>Tran Thi Quynh Trang00268175</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime &amp; Lieu 2025_ Tran Thi Quynh Trang_00268175_2025-03-21、</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Start Troubleshooting 2h55 on 13Jul25.jpg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Finished at 4h31 2025-07-13 .png</t>
-        </is>
-      </c>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Troubleshooting at night time</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02:55</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.58</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>weekend night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -910,279 +815,268 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HOANG THI HA00263932</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ HOANG THI HA_00263932</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Ngoc Thang_10349944_2025-02-26, 27、</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>From home</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
       </c>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HOANG THI HA00263932</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ HOANG THI HA_00263932</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Ngoc Thang_10349944_2025-02-26, 27、</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>From home</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
+          <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-06-26、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ LE THAI HOANG LONG_10068423_2025-03-14、</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Re Apply overtime work for connect new NMS at MMSC Viettel.pdf</t>
-        </is>
-      </c>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>remote</t>
+          <t>Mobifone Ho Chi Minh</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>weekday</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-07-07、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:30</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>weekday</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>At home (remotely)</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22:40</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.67</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1191,61 +1085,59 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
       </c>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>At home (remotely)</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:55</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5.42</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1254,124 +1146,110 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Nguyen Hoang Hai10306795</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>At home (remotely)</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Nguyen Hoang Hai10306795</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>At home (remotely)</t>
+          <t>Hoa Lac MTSO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.17</v>
+        <v>6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1380,66 +1258,59 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
       </c>
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nguyen Hoang Hai10306795</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-06-27、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-答复 OT Application Server connect Viettel IDC 20250625.pdf</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Viettel IDC Phap Van does not have location in Mobile Check-in Application</t>
-        </is>
-      </c>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Viettel IDC Phap Van</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1448,62 +1319,50 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-06-27、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-14、</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-答复 OT Application Server connect Viettel IDC 20250625.pdf</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Viettel IDC Phap Van does not have location in Mobile Check-in Application</t>
-        </is>
-      </c>
+          <t>Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation_hexiangdong approve.pdf _x000D_
+Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation Chenwei.pdf</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Viettel IDC Phap Van</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1511,66 +1370,59 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekday</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-14、</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Urgent work that confirm with leader by phone call</t>
+          <t>Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation_hexiangdong approve.pdf _x000D_
+Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation Chenwei.pdf</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1579,214 +1431,1016 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>2.25</v>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Urgent work that confirm with leader by phone call</t>
+          <t>_x000D_
+Re Apply overtime work for sms test at SMSC MT project .pdf</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Urgent work that confirm with leader by phone call</t>
+          <t>_x000D_
+Re Apply overtime work for sms test at SMSC MT project .pdf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Hour : Minutes AM</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mai The Dat10349945</t>
+          <t>NGUYEN TIEN HUNG10067948</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Mai Dat_10349945_2025-06-18、</t>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Support POSTEF to TEST Power T601 Version 6</t>
+          <t>_x000D_
+Re Overtime work 173 for SMSC MT project.pdf</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Remote to Da Nang</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-03-14、</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>00:52</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>01:59</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>00:25</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>02:04</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>00:50</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>02:42</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-17、</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>05:47</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Quang Nguyen_10348008_2025-02-25、</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MBF</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran NgocAnh_10063060_2025-03-19、</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re Apply for work over time_08032025.pdf</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>This Location do not have checkin point</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Viettel Phap Van</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>weekend</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran NgocAnh_10063060_2025-03-19、</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re Appy for work overtime!_20250318.pdf</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mobifone HCM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>pls choose</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mobifone HCM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>8</v>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mobifone HCM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-17、</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>At home</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>03:38</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-17、</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>At home</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>03:36</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-20、</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Work at hom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>03:25</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-20、</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Work at hom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>03:06</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,92 +446,124 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>OT date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Proof for pre-approval</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Chek in/out screen capture</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OT location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>OT From</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>OT To</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OT Sum</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OT Day in week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Lieu Date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Lieu From</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lieu To</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lieu Sum</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>HRcheck (edit by HR) Tran ThiQuynhTrang00268175</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Proof about leaders arrange (2) Capture screen call/messages</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Capture Screen (3) Check in and check out time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Work location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OT From</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>OT To</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>OT Sum</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>OT Day in week</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Lieu Date</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Lieu From</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Lieu To</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Lieu Sum</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>HRcheck (edit by HR) Tran ThiQuynhTrang00268175</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Tran Minh Tri10349366</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
+          <t>Jul (20.6-19.7) 2025_Time In Lieu 2025_ Tran Tri_10349366_2025-06-26、27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -539,7 +571,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -549,38 +581,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>8.5</v>
       </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Tran Minh Tri10349366</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
+          <t>Jul (20.6-19.7) 2025_Time In Lieu 2025_ Tran Tri_10349366_2025-06-26、27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -588,48 +634,62 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Pham Phuong Thuy00329791</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Lieu off time 2025_ TRAN QUOC VIET_10073657_2025-03-07,10,11、</t>
+          <t>Jul (20.6-19.7) 2025_Time off in lieu_ Pham PhuongThuy_00329791_2025-07-14、</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>pls choose</t>
@@ -637,7 +697,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -650,43 +710,72 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="N4" t="n">
+        <v>8</v>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Time  In Lieu  2025_ LE THAI HOANG LONG_10068423_2025-03-13、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>_x000D_
+Approved +Done OT application to do CR202506200008 on 26Jun2025.pdf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Finished CR at 5h20 2025-06-26 .png _x000D_
+ _x000D_
+ _x000D_
+In lieu _x000D_
+Inlieu time 26Jun2025.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CR at night time</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02:35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>05:20</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>pls choose</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -696,387 +785,466 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nguyen Trong Thang10316673</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Time off in lieu 2025_ Nguyen Trongthang_10316673_2025-03-18、</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>_x000D_
+Approved OT application to do CR202506230012_29Jun2025.pdf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>_x000D_
+Finished CR at 5h04 2025-06-29 .png</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CR at night time</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02:15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>05:05</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>pls choose</t>
+          <t>weekend night</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tran Thi Quynh Trang00268175</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime &amp; Lieu 2025_ Tran Thi Quynh Trang_00268175_2025-03-21、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ Binh Nguyen_10342818_26+29Jun and 13Jul</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>_x000D_
+Start Troubleshooting 2h55 on 13Jul25.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>_x000D_
+Finished at 4h31 2025-07-13 .png</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Troubleshooting at night time</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>02:55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1.58</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekend night</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>HOANG THI HA00263932</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Ngoc Thang_10349944_2025-02-26, 27、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ HOANG THI HA_00263932</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>From home</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>HOANG THI HA00263932</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Ngoc Thang_10349944_2025-02-26, 27、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ HOANG THI HA_00263932</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>From home</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>NGUYEN TIEN HUNG10067948</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ LE THAI HOANG LONG_10068423_2025-03-14、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-06-26、</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re Apply overtime work for connect new NMS at MMSC Viettel.pdf</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mobifone Ho Chi Minh</t>
+          <t>remote</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekday</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>NGUYEN TIEN HUNG10067948</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-07-07、</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>From home</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>weekday night</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>From home</t>
+          <t>At home (remotely)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>22:40</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3.67</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1085,59 +1253,65 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Le Thang_10349944_2025-03-5, 12, 18、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>From home</t>
+          <t>At home (remotely)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:55</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>5.42</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1146,110 +1320,132 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nguyen Hoang Hai10306795</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>At home (remotely)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nguyen Hoang Hai10306795</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_ TA THANH_10349369_2025-07-02、</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hoa Lac MTSO</t>
+          <t>At home (remotely)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>2.17</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1258,111 +1454,138 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-06-27、</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>_x000D_
+答复 OT Application Server connect Viettel IDC 20250625.pdf</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Viettel IDC Phap Van does not have location in Mobile Check-in Application</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Viettel IDC Phap Van</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Nguyen Hoang Hai10306795</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-03-03/10/14、</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-06-27、</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>_x000D_
+答复 OT Application Server connect Viettel IDC 20250625.pdf</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Viettel IDC Phap Van does not have location in Mobile Check-in Application</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Viettel IDC Phap Van</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>weekday night</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-14、</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation_hexiangdong approve.pdf _x000D_
-Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation Chenwei.pdf</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1370,59 +1593,70 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>weekday</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-14、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation_hexiangdong approve.pdf _x000D_
-Re Apply overtime work for upgarde switch at VAS Mobifone follow Techinical Notifcation Chenwei.pdf</t>
+          <t>Urgent work that confirm with leader by phone call</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1431,515 +1665,672 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>2.25</v>
+      </c>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>_x000D_
-Re Apply overtime work for sms test at SMSC MT project .pdf</t>
+          <t>Urgent work that confirm with leader by phone call</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
+          <t>Jul (20.6-19.7) 2025_Working overtime 2025_Nguyen Huu Duc _10354660_2025-07-01、</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>_x000D_
-Re Apply overtime work for sms test at SMSC MT project .pdf</t>
+          <t>Urgent work that confirm with leader by phone call</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGUYEN TIEN HUNG10067948</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-03-18、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Mai Dat_10349945_2025-06-18、</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>_x000D_
-Re Overtime work 173 for SMSC MT project.pdf</t>
+          <t>Support POSTEF to TEST Power T601 Version 6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Remote to Da Nang</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>weekday</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nguyen Minh Tri10349368</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-03-14、</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Binh Nguyen_10342818_2025-05-24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>office</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend night</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Hour : Minutes PM</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>_x000D_
+Approved OT Application to do CR202505130007 optimize optical power for segment 209006-217018_24 May.pdf</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>_x000D_
+Actual CR202505130007__Routine Health check optical channel power route 209006... 217018 24May.pdf</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pham Huy Ket10315283</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Binh Nguyen_10342818_2025-05-24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>00:52</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>01:59</t>
+          <t>Hour : Minutes PM</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>:</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>weekend night</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pham Huy Ket10315283</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Binh Nguyen_10342818_2025-05-24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>00:25</t>
+          <t>04:25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>02:04</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2.17</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>weekend night</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pham Huy Ket10315283</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-10、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Binh Nguyen_10342818_2025-06-07+14、</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>_x000D_
+Approved OT Application to do CR20250604000 on 07-June-2025.pdf</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>_x000D_
+Finish CR202506040001_Health check optical channel power … 07Jun25.pdf</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>00:50</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>02:42</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>weekend night</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pham Huy Ket10315283</t>
+          <t>Nguyen Dang Binh10342818</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-03-17、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Binh Nguyen_10342818_2025-06-07+14、</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[Major] TT202506140160 Backbone DWDM: Down 6/6 link HL-HCM _x000D_
+ _x000D_
+ _x000D_
+[BO TRM Escalation] TT202506140206: DN-215003-DWDM Power Off Alarm PSK - Board</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05:47</t>
+          <t>02:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
+          <t>04:40</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2.58</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>weekend</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nguyen Dinh Quang10348008</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Quang Nguyen_10348008_2025-02-25、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ BUI BA UY_10046198_2025-06-17、</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MBF</t>
+          <t>VNTA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>weekend night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran NgocAnh_10063060_2025-03-19、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ BUI BA UY_10046198_2025-06-17、</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>_x000D_
-Re Apply for work over time_08032025.pdf</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>This Location do not have checkin point</t>
-        </is>
-      </c>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Viettel Phap Van</t>
+          <t>VNTA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1948,7 +2339,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1957,149 +2348,180 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran NgocAnh_10063060_2025-03-19、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ BUI BA UY_10046198_2025-06-17、</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>_x000D_
-Re Appy for work overtime!_20250318.pdf</t>
-        </is>
-      </c>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>VNTA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>weekday night</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>Hour : Minutes AM</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>:</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ BUI BA UY_10046198_2025-06-17、</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mobifone HCM</t>
+          <t>VNTA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>pls choose</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ LE THAI HOANG LONG_10068423_2025-06-05、</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2111,67 +2533,83 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>weekday night</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+          <t>Support to</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ TRAN QUOC VIET_10073657_2025-03-13,15,17,18、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Le Thang_10349944_2025-05-21, 28.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mobifone HCM</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2180,7 +2618,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2197,28 +2635,32 @@
         <v>4</v>
       </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-17、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Le Thang_10349944_2025-05-21, 28.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>At home</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2228,11 +2670,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>03:38</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2241,12 +2683,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2255,31 +2697,35 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-17、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Le Thang_10349944_2025-06-4, 11, 18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>At home</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2289,11 +2735,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>03:36</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2302,45 +2748,49 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.68</v>
+        <v>3</v>
       </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-20、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Le Thang_10349944_2025-06-4, 11, 18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Work at hom</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2350,11 +2800,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>03:25</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3.42</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2363,45 +2813,49 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.72</v>
+        <v>1.83</v>
       </c>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tran Minh Tri10349366</t>
+          <t>Le Ngoc Thang10349944</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mar (20.2-19.3) 2025_Working overtime 2025_ Tran Tri_10349366_2025-03-20、</t>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Le Thang_10349944_2025-06-4, 11, 18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Work at hom</t>
+          <t>From home</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2411,11 +2865,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>03:06</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2424,23 +2878,1828 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Mai Dat_10349945_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Support POSTEF to TEST Power T601 Version 6</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Remote to Da Nang</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nguyen Hoang Hai10306795</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-06-19、</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nguyen Hoang Hai10306795</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen HoangHai_10306795_2025-06-19、</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nguyen Luong Quang Vien10133889</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ NGUYEN LUONG QUANG VIEN_10133889_2025-05-24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>POSTEF warehouse</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>08:30</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>13:34</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ NGUYEN TIEN HUNG_10067948_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01:05</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Hour : Minutes PM</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>02:40</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Tri_10349368_2025-05-20,29,31 and 2025-06-01,10,11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>04:10</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>04:10</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nguyen Trong Thang10316673</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Trongthang_10316673_2025-06-07 and 2025-06-10、</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re Child _Normal_CR202506020002_R4_TRM_South Metro modify config and test link via MW backup 33300….pdf</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>_x000D_
+Evedent_Child _Normal_CR202506020002_R4_TRM_South Metro modify config and test link via MW backup 33300….pdf</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Remote at home</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nguyen Trong Thang10316673</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Trongthang_10316673_2025-06-07 and 2025-06-10、</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-06-09 _x000D_
+ _x000D_
+2025-06-10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re [EXTERNAL]Normal_CR202506060001_R4_TRM_R4_TRM_Troubleshooting MW EMS server_HCM_9Jun2025 OT ….pdf</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>_x000D_
+Evedent_[EXTERNAL]Normal_CR202506060001_R4_TRM_R4_TRM_Troubleshooting MW EMS server_HCM_9Jun2025.pdf</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>remote at home</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN CHUNG10196240</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Nguyen Van Chung_10196240_2025-06-16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Support Viettel KV2 upgrade version U31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>_x000D_
+checkin.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Viettel</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>22:15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>01:35</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-06-10、</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re_ Applying OT application for Normal_CR202506040010_R4_TRM_Central To modify configuration and tes….pdf</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>00:45</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>:50</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-06-10、</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re_ Applying OT application for Normal_CR202506090005_R4_TRM_Central To modify configuration and tes….pdf</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>00:55</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>03:25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-06-16、</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re_ About applying OT application for upgrade version tasks.pdf</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham HuyKet_10315283_2025-06-16、</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>_x000D_
+Re_ About applying OT application for upgrade version tasks.pdf</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Pham Phuong Thuy00329791</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham PhuongThuy_00329791_2025-06-14、Time off in lieu in the future</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Pre-approval_Pham Phuong Thuy_20250614_1.png _x000D_
+Re Application for working overtime to verify subcon workload_Saturday, June 14th, 2025.pdf _x000D_
+Pre-approval_Pham Phuong Thuy_20250614_2.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>_x000D_
+Checkin-Checkout.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>HCM Office</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pham Phuong Thuy00329791</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Pham PhuongThuy_00329791_2025-06-14、Time off in lieu in the future</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>8</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Tran Tri_10349366_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>02:30</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Tran Tri_10349366_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>03:45</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>weekend night</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Tran Tri_10349366_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>03:25</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Tran Tri_10349366_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>03:05</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tran Minh Tri10349366</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_ Tran Tri_10349366_2025-06-18、</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>03:45</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>weekday night</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>HR revise lieu date</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_Pham Thuy Linh 00346969</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Hour : Minutes AM</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Hour : Minutes PM</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>anbinh domitory</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Jun (20.5-19.6) 2025_Working overtime 2025_Pham Thuy Linh 00346969</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>8</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>thezei building</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -620,11 +620,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,16 +556,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -615,16 +615,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -756,10 +756,8 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
+      <c r="N5" t="n">
+        <v>1.67</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -1465,7 +1463,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2:</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,16 +556,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -615,16 +615,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -756,8 +756,10 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1.67</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -1463,7 +1465,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2:</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,16 +556,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -615,16 +615,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08 : Minutes AM</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>06 : Minutes PM</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -756,10 +756,8 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
+      <c r="N5" t="n">
+        <v>1.67</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -1465,7 +1463,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2:</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,16 +556,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -615,16 +615,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08 : Minutes AM</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06 : Minutes PM</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -756,8 +756,10 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1.67</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -1463,7 +1465,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2:</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">

--- a/uploads/temp_otlieu.xlsx
+++ b/uploads/temp_otlieu.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
